--- a/tetra-10mm.xlsx
+++ b/tetra-10mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasek\PythonWork\excelstl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606E226-239F-482B-AEB0-E94FBD7BE6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307E1ABA-8C5E-430D-8591-A59830047AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4005701-3806-49B7-854D-104EB21F216D}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,7 +454,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
